--- a/data/models_adj/Adj_matrices_Models.xlsx
+++ b/data/models_adj/Adj_matrices_Models.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/Documents/Working/~RCode/MyRCode/LEGO/LEGO_sets/data/Adj_matrices_LEGO Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedro/Documents/Working/~RCode/MyRCode/LEGO/LEGO_sets_networks/data/models_adj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DE9CFD-50CB-F446-A111-D3966EEAA25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0247BAF-68BB-1049-A0DB-3FDD1235D418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="500" windowWidth="23020" windowHeight="27060" activeTab="2" xr2:uid="{7D3746F1-AEBA-BF48-8E55-BA4C171A9218}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="2" xr2:uid="{7D3746F1-AEBA-BF48-8E55-BA4C171A9218}"/>
   </bookViews>
   <sheets>
     <sheet name="4019-Aeroplane" sheetId="1" r:id="rId1"/>
     <sheet name="4485-Sebulba's Podracer Mini" sheetId="2" r:id="rId2"/>
-    <sheet name="7962_Anakin and Sebulba's Pods" sheetId="4" r:id="rId3"/>
+    <sheet name="75321_The Razor Crest Microfi" sheetId="5" r:id="rId3"/>
+    <sheet name="7962_Anakin and Sebulba's Pods" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="354">
   <si>
     <t>Image</t>
   </si>
@@ -772,12 +773,366 @@
   <si>
     <t>bag #2</t>
   </si>
+  <si>
+    <t> 4 </t>
+  </si>
+  <si>
+    <t> 99207</t>
+  </si>
+  <si>
+    <t>Black Bracket 1 x 2 - 2 x 2 Inverted </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Bracket</t>
+  </si>
+  <si>
+    <t> 1 </t>
+  </si>
+  <si>
+    <t> 11215</t>
+  </si>
+  <si>
+    <t>Black Bracket 5 x 2 x 1 1/3 with 2 Holes </t>
+  </si>
+  <si>
+    <t> 92738</t>
+  </si>
+  <si>
+    <t>Black Minifigure, Weapon Gun, Blaster Small (SW) </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Minifigure, Weapon</t>
+  </si>
+  <si>
+    <t> 4073</t>
+  </si>
+  <si>
+    <t>Black Plate, Round 1 x 1 </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Plate, Round</t>
+  </si>
+  <si>
+    <t> 2 </t>
+  </si>
+  <si>
+    <t> 32803</t>
+  </si>
+  <si>
+    <t>Black Slope, Curved 2 x 2 x 2/3 Inverted </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Slope, Curved</t>
+  </si>
+  <si>
+    <t> 2780</t>
+  </si>
+  <si>
+    <t>Black Technic, Pin with Short Friction Ridges </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Technic, Pin</t>
+  </si>
+  <si>
+    <t> 11211</t>
+  </si>
+  <si>
+    <t>Dark Bluish Gray Brick, Modified 1 x 2 with Studs on Side </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Brick, Modified</t>
+  </si>
+  <si>
+    <t> 6 </t>
+  </si>
+  <si>
+    <t> 3023</t>
+  </si>
+  <si>
+    <t>Dark Bluish Gray Plate 1 x 2 </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Plate</t>
+  </si>
+  <si>
+    <t> 3021</t>
+  </si>
+  <si>
+    <t>Dark Bluish Gray Plate 2 x 3 </t>
+  </si>
+  <si>
+    <t> 48336</t>
+  </si>
+  <si>
+    <t>Dark Bluish Gray Plate, Modified 1 x 2 with Bar Handle on Side - Closed Ends </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Plate, Modified</t>
+  </si>
+  <si>
+    <t> 4590</t>
+  </si>
+  <si>
+    <t>Dark Bluish Gray Plate, Modified 1 x 4 Offset </t>
+  </si>
+  <si>
+    <t> 4032</t>
+  </si>
+  <si>
+    <t>Dark Bluish Gray Plate, Round 2 x 2 with Axle Hole </t>
+  </si>
+  <si>
+    <t> 69755</t>
+  </si>
+  <si>
+    <t>Dark Bluish Gray Projectile Launcher Part, Trigger for Bazooka, Mini Blaster / Shooter </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Projectile Launcher</t>
+  </si>
+  <si>
+    <t> 61409</t>
+  </si>
+  <si>
+    <t>Dark Bluish Gray Slope 18 2 x 1 x 2/3 with Grille </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Slope</t>
+  </si>
+  <si>
+    <t> 85984pb127</t>
+  </si>
+  <si>
+    <t>Dark Bluish Gray Slope 30 1 x 2 x 2/3 with Red, White, and Silver Buttons, Dark Red Screens Pattern </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Slope, Decorated</t>
+  </si>
+  <si>
+    <t> 30350b</t>
+  </si>
+  <si>
+    <t>Dark Bluish Gray Tile, Modified 2 x 3 with 2 Open O Clips </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Tile, Modified</t>
+  </si>
+  <si>
+    <t> 25269</t>
+  </si>
+  <si>
+    <t>Dark Bluish Gray Tile, Round 1 x 1 Quarter </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Tile, Round</t>
+  </si>
+  <si>
+    <t> 18674</t>
+  </si>
+  <si>
+    <t>Dark Bluish Gray Tile, Round 2 x 2 with Open Stud </t>
+  </si>
+  <si>
+    <t> 3710</t>
+  </si>
+  <si>
+    <t>Dark Tan Plate 1 x 4 </t>
+  </si>
+  <si>
+    <t> 2420</t>
+  </si>
+  <si>
+    <t>Dark Tan Plate 2 x 2 Corner </t>
+  </si>
+  <si>
+    <t> 3795</t>
+  </si>
+  <si>
+    <t>Dark Tan Plate 2 x 6 </t>
+  </si>
+  <si>
+    <t> 63864</t>
+  </si>
+  <si>
+    <t>Dark Tan Tile 1 x 3 </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Tile</t>
+  </si>
+  <si>
+    <t> 99781</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Bracket 1 x 2 - 1 x 2 </t>
+  </si>
+  <si>
+    <t> 17485</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Brick, Round 2 x 2 with Pin Holes </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Brick, Round</t>
+  </si>
+  <si>
+    <t> 33492</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Cone 1 1/2 x 1 1/2 x 2/3 Truncated </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Cone</t>
+  </si>
+  <si>
+    <t> 99563</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Minifigure, Utensil Ingot / Bar </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Minifigure, Utensil</t>
+  </si>
+  <si>
+    <t> 3020</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Plate 2 x 4 </t>
+  </si>
+  <si>
+    <t> 15573</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Plate, Modified 1 x 2 with 1 Stud with Groove and Bottom Stud Holder (Jumper) </t>
+  </si>
+  <si>
+    <t> 87580</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Plate, Modified 2 x 2 with Groove and 1 Stud in Center (Jumper) </t>
+  </si>
+  <si>
+    <t> 99206</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Plate, Modified 2 x 2 x 2/3 with 2 Studs on Side </t>
+  </si>
+  <si>
+    <t> 69754</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Projectile Launcher, 1 x 2 Mini Blaster / Tile Shooter </t>
+  </si>
+  <si>
+    <t> 85984</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Slope 30 1 x 2 x 2/3 </t>
+  </si>
+  <si>
+    <t> 30165</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Slope, Curved 2 x 2 x 1 Double with 2 Studs </t>
+  </si>
+  <si>
+    <t> 73109</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Technic, Brick Modified 1 x 2 with Hole and 1 x 2 Plate </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Technic, Brick</t>
+  </si>
+  <si>
+    <t> 2412b</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Tile, Modified 1 x 2 Grille with Bottom Groove / Lip </t>
+  </si>
+  <si>
+    <t> 3 </t>
+  </si>
+  <si>
+    <t> 33909</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Tile, Modified 2 x 2 with Studs on Edge </t>
+  </si>
+  <si>
+    <t> 29120</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Wedge 2 x 1 x 2/3 Left </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Wedge</t>
+  </si>
+  <si>
+    <t> 29119</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Wedge 2 x 1 x 2/3 Right </t>
+  </si>
+  <si>
+    <t> 26601</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Wedge, Plate 2 x 2 Cut Corner </t>
+  </si>
+  <si>
+    <t>Catalog: Parts: Wedge, Plate</t>
+  </si>
+  <si>
+    <t> 43723</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Wedge, Plate 3 x 2 Left </t>
+  </si>
+  <si>
+    <t> 43722</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Wedge, Plate 3 x 2 Right </t>
+  </si>
+  <si>
+    <t> 48183</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Wedge, Plate 3 x 4 with Stud Notches </t>
+  </si>
+  <si>
+    <t> 54200</t>
+  </si>
+  <si>
+    <t>Trans-Black Slope 30 1 x 1 x 2/3 </t>
+  </si>
+  <si>
+    <t>Trans-Orange Plate, Round 1 x 1 </t>
+  </si>
+  <si>
+    <t>Trans-Red Plate, Round 1 x 1 </t>
+  </si>
+  <si>
+    <t> sw1166 (Inv)</t>
+  </si>
+  <si>
+    <t>The Mandalorian / Din Djarin / 'Mando' - Silver Beskar Armor, Jet Pack </t>
+  </si>
+  <si>
+    <t>Catalog: Minifigures: Star Wars: Star Wars The Mandalorian</t>
+  </si>
+  <si>
+    <t> 69754c01 (Inv)</t>
+  </si>
+  <si>
+    <t>Light Bluish Gray Projectile Launcher, 1 x 2 Mini Blaster / Tile Shooter with Dark Bluish Gray Trigger (69754 / 69755) </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -910,8 +1265,79 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF111111"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="28"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,6 +1347,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,10 +1366,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1019,8 +1452,46 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5647,6 +6118,2584 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>336168</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>21226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2894844</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>268370</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="56" name="Grupo 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4694517-519C-9DD7-198F-5CC49EAF0FB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="336168" y="656226"/>
+          <a:ext cx="2558676" cy="83450820"/>
+          <a:chOff x="628608" y="1039091"/>
+          <a:chExt cx="1011510" cy="35994879"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="img0" descr="Part No: 99207  Name: Bracket 1 x 2 - 2 x 2 Inverted">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC25B99-DEC1-72E5-BD26-B2AA9E1C5C55}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="1039091"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="img1" descr="Part No: 11215  Name: Bracket 5 x 2 x 1 1/3 with 2 Holes">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB221D6-90EA-6395-1C63-EF030F0A7F8A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="1680505"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="img2" descr="Part No: 92738  Name: Minifigure, Weapon Gun, Blaster Small (SW)">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBFBB71C-8EBC-0061-B7A3-8A19C9687B2C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="2321919"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="img3" descr="Part No: 4073  Name: Plate, Round 1 x 1">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E2840C8-D9BF-7C98-B511-770A1E3FBE66}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="2963333"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="img4" descr="Part No: 32803  Name: Slope, Curved 2 x 2 x 2/3 Inverted">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA187B9C-9119-5FD0-9638-1EAF1799656A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="3604747"/>
+            <a:ext cx="1011510" cy="768415"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="img5" descr="Part No: 2780  Name: Technic, Pin with Short Friction Ridges">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B033D482-C72C-3BF8-D6FF-DA493FFA23B4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="4246162"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="img6" descr="Part No: 11211  Name: Brick, Modified 1 x 2 with Studs on Side">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F866DB6C-541B-2C92-20AE-40E7A831E56D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="4887576"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="9" name="img7" descr="Part No: 3023  Name: Plate 1 x 2">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9474752-F5CB-051D-98B8-075E7EF72FF8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="5528990"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="img8" descr="Part No: 3021  Name: Plate 2 x 3">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5F335C6-24C0-E203-7805-A11B04AB4DCA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="6170404"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="11" name="img9" descr="Part No: 48336  Name: Plate, Modified 1 x 2 with Bar Handle on Side - Closed Ends">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA60930B-4975-909C-2DAC-0617259A13E2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="6811818"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="img10" descr="Part No: 4590  Name: Plate, Modified 1 x 4 Offset">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D9D7A4-AC12-0F37-0CB5-35B2E6E98DF6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="7453232"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="img11" descr="Part No: 4032  Name: Plate, Round 2 x 2 with Axle Hole">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F38C0569-7E54-E6F8-2F12-C51F13B95D36}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="8094646"/>
+            <a:ext cx="1011510" cy="768415"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="14" name="img12" descr="Part No: 69755  Name: Projectile Launcher Part, Trigger for Bazooka, Mini Blaster / Shooter">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC48797-F17F-AD07-5E1D-52740243F9C6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="8736061"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="img13" descr="Part No: 61409  Name: Slope 18 2 x 1 x 2/3 with Grille">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11DB25A-D8D8-7CE9-9A14-4F6BFAF949B2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="9377475"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="img14" descr="Part No: 85984pb127  Name: Slope 30 1 x 2 x 2/3 with Red, White, and Silver Buttons, Dark Red Screens Pattern">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E159CEB-37EF-AB0E-5E59-06469D4BCF3A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="10018889"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="17" name="img15" descr="Part No: 30350b  Name: Tile, Modified 2 x 3 with 2 Open O Clips">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDCBC849-0A33-9418-B014-0EE8EF590822}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="10660303"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="18" name="img16" descr="Part No: 25269  Name: Tile, Round 1 x 1 Quarter">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961B74EE-7DA2-CDE9-F04D-7CAE63674D13}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="11301717"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="19" name="img17" descr="Part No: 18674  Name: Tile, Round 2 x 2 with Open Stud">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{474E9698-57A6-6AAD-4FE9-79F8F5F64D2D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="11943131"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="20" name="img18" descr="Part No: 3710  Name: Plate 1 x 4">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419FDA49-36AB-5865-706C-AF1846501830}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="12584545"/>
+            <a:ext cx="1011510" cy="768415"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="21" name="img19" descr="Part No: 2420  Name: Plate 2 x 2 Corner">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{254B2A66-A287-AFBB-6238-39E69A64209E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="13225960"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="img20" descr="Part No: 3795  Name: Plate 2 x 6">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2812C803-B50B-AF98-DC37-DB929922C311}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="13867374"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="23" name="img21" descr="Part No: 63864  Name: Tile 1 x 3">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46A44DBF-5E29-B656-3277-2ACEFC16A728}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="14508788"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="img22" descr="Part No: 99781  Name: Bracket 1 x 2 - 1 x 2">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1401C7A-7FFA-DA30-3258-F4E221EEE705}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="15150202"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="img23" descr="Part No: 17485  Name: Brick, Round 2 x 2 with Pin Holes">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACE7B56-6311-01D1-6148-DDE667B5D416}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="15791616"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="26" name="img24" descr="Part No: 33492  Name: Cone 1 1/2 x 1 1/2 x 2/3 Truncated">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23292F25-3559-00DF-54E5-E4C3265A7C49}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="16433030"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="27" name="img25" descr="Part No: 99563  Name: Minifigure, Utensil Ingot / Bar">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49411025-2576-5BA9-5232-3F41E61EF21D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="17074444"/>
+            <a:ext cx="1011510" cy="768415"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="28" name="img26" descr="Part No: 3020  Name: Plate 2 x 4">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACDE94B-8EB2-C0EA-4408-B7A439F671F4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="17715859"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="29" name="img27" descr="Part No: 15573  Name: Plate, Modified 1 x 2 with 1 Stud with Groove and Bottom Stud Holder (Jumper)">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D100A7C-DF8A-7D04-2EC5-1D21496885BA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="18357273"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="30" name="img28" descr="Part No: 87580  Name: Plate, Modified 2 x 2 with Groove and 1 Stud in Center (Jumper)">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43392E31-E6A0-B62E-82D6-6DA6197AC8F8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="18998687"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="31" name="img29" descr="Part No: 99206  Name: Plate, Modified 2 x 2 x 2/3 with 2 Studs on Side">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F3A8D4-EFB8-F612-3F52-4FB5207BFDD2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="19640101"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="32" name="img30" descr="Part No: 69754  Name: Projectile Launcher, 1 x 2 Mini Blaster / Tile Shooter">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E0D81D1-BA8A-79E2-3B11-89521867EA9E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="20281515"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="33" name="img31" descr="Part No: 85984  Name: Slope 30 1 x 2 x 2/3">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA50398-B544-D5C7-F25B-57CA4D4D9E90}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="20922929"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="34" name="img32" descr="Part No: 30165  Name: Slope, Curved 2 x 2 x 1 Double with 2 Studs">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09A1445E-6723-7A9F-B71B-EBD7D8375866}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="21564343"/>
+            <a:ext cx="1011510" cy="768415"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="35" name="img33" descr="Part No: 73109  Name: Technic, Brick Modified 1 x 2 with Hole and 1 x 2 Plate">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0580873C-9457-40A7-7261-6506AB998BDB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="22205758"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="36" name="img34" descr="Part No: 2412b  Name: Tile, Modified 1 x 2 Grille with Bottom Groove / Lip">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53890EC4-DF78-F120-B179-0844E96D89A8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="22847172"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="37" name="img35" descr="Part No: 33909  Name: Tile, Modified 2 x 2 with Studs on Edge">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3965505-4A39-4B06-5F6A-4C5136C81003}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="23488586"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="38" name="img36" descr="Part No: 29120  Name: Wedge 2 x 1 x 2/3 Left">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A251B573-AF6B-FD10-AAFC-1C08E56A9449}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="24130000"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="39" name="img37" descr="Part No: 29119  Name: Wedge 2 x 1 x 2/3 Right">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BDEA735-F5B5-8142-4B36-D81661B793CA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="24771414"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="40" name="img38" descr="Part No: 26601  Name: Wedge, Plate 2 x 2  Cut Corner">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C46DDD-1E46-71AB-8892-0C298DD6E6D3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="25412828"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="41" name="img39" descr="Part No: 43723  Name: Wedge, Plate 3 x 2 Left">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12C621BC-4356-39EC-B972-2E54D632DFF9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="26054242"/>
+            <a:ext cx="1011510" cy="768415"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="42" name="img40" descr="Part No: 43722  Name: Wedge, Plate 3 x 2 Right">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId81"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC72515D-493C-94A2-80F1-DF6CDC1AA245}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="26695657"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="43" name="img41" descr="Part No: 48183  Name: Wedge, Plate 3 x 4 with Stud Notches">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId83"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C9CB88C-6B1C-D71E-4B25-34DD75D93B14}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="27337071"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="44" name="img42" descr="Part No: 54200  Name: Slope 30 1 x 1 x 2/3">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E75BAE-8003-0A1D-88B8-D90068DC649E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="27978485"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="45" name="img43" descr="Part No: 4073  Name: Plate, Round 1 x 1">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C23E8DD3-ECAE-E5CD-A674-30E8761CA058}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="28619899"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="46" name="img44" descr="Part No: 4073  Name: Plate, Round 1 x 1">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B04935-4C0C-ECD7-369D-B8395F2F3F1F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="29261313"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="47" name="img45" descr="Minifig No: sw1166  Name: The Mandalorian / Din Djarin / 'Mando' - Silver Beskar Armor, Jet Pack">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId87"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A19A51-4CC1-679C-A3B7-4ED6D2A5D818}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="30107980"/>
+            <a:ext cx="762000" cy="1024466"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="48" name="img46" descr="Part No: 4073  Name: Plate, Round 1 x 1">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{045F46EC-5EDE-ABB9-0F11-5D65A05CA9BA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="31365152"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="49" name="img47" descr="Part No: 2780  Name: Technic, Pin with Short Friction Ridges">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085C4079-1BC5-D6B8-E9A8-C079BC6EE407}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="32006566"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="50" name="img48" descr="Part No: 69755  Name: Projectile Launcher Part, Trigger for Bazooka, Mini Blaster / Shooter">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA9983C-A2C5-7863-0CFB-2CCABE694C25}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="32647980"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="51" name="img49" descr="Part No: 25269  Name: Tile, Round 1 x 1 Quarter">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529C28BA-1D55-3F55-461F-9362771B1A38}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="33289394"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="52" name="img50" descr="Part No: 54200  Name: Slope 30 1 x 1 x 2/3">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId85"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF5984A9-E79D-85A4-10ED-29B04D6F47F2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="33930808"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="53" name="img51" descr="Part No: 4073  Name: Plate, Round 1 x 1">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51DF09C4-107C-F3E1-0838-2571AF27AF17}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="34572222"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="54" name="img52" descr="Part No: 4073  Name: Plate, Round 1 x 1">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F658DD-F51F-575A-DC3F-12D31E748C9D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="35213636"/>
+            <a:ext cx="1011510" cy="768415"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="55" name="img53" descr="Part No: 69754c01  Name: Projectile Launcher, 1 x 2 Mini Blaster / Tile Shooter with Dark Bluish Gray Trigger (69754 / 69755)">
+            <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId89"/>
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{722D6257-21C0-7F72-C637-7820F592456D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="628608" y="36265556"/>
+            <a:ext cx="1011510" cy="768414"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -24681,14 +27730,1405 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E79E00-5623-9C43-A352-95610F7CAA57}">
+  <dimension ref="A1:I169"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="42.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="40" customWidth="1"/>
+    <col min="4" max="4" width="59.6640625" style="31" customWidth="1"/>
+    <col min="5" max="8" width="23.5" style="40" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" style="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="36" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="32"/>
+      <c r="C2" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="40">
+        <v>2</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="H2" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="32"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="40">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="40">
+        <v>3</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="32"/>
+      <c r="C5" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="32"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="32"/>
+      <c r="C8" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="32"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="32"/>
+      <c r="C11" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="32"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="32"/>
+      <c r="C14" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="32"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="32"/>
+      <c r="C17" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="32"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="32"/>
+      <c r="C20" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="32"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="32"/>
+      <c r="C23" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="32"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="32"/>
+      <c r="C26" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="32"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="32"/>
+      <c r="C29" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="32"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="34"/>
+    </row>
+    <row r="32" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="32"/>
+      <c r="C32" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="32"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="34"/>
+    </row>
+    <row r="35" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="32"/>
+      <c r="C35" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="32"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="34"/>
+    </row>
+    <row r="38" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="32"/>
+      <c r="C38" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="32"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C40" s="39"/>
+      <c r="D40" s="34"/>
+    </row>
+    <row r="41" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="32"/>
+      <c r="C41" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="32"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="34"/>
+    </row>
+    <row r="44" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="32"/>
+      <c r="C44" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="32"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C46" s="39"/>
+      <c r="D46" s="34"/>
+    </row>
+    <row r="47" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="32"/>
+      <c r="C47" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="32"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="34"/>
+    </row>
+    <row r="50" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="32"/>
+      <c r="C50" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="32"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="39"/>
+      <c r="D52" s="34"/>
+    </row>
+    <row r="53" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="32"/>
+      <c r="C53" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="32"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C55" s="39"/>
+      <c r="D55" s="34"/>
+    </row>
+    <row r="56" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="32"/>
+      <c r="C56" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="32"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" s="39"/>
+      <c r="D58" s="34"/>
+    </row>
+    <row r="59" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="32"/>
+      <c r="C59" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="32"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" s="39"/>
+      <c r="D61" s="34"/>
+    </row>
+    <row r="62" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="32"/>
+      <c r="C62" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="32"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="34"/>
+    </row>
+    <row r="65" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="32"/>
+      <c r="C65" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="D65" s="33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="32"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" s="39"/>
+      <c r="D67" s="34"/>
+    </row>
+    <row r="68" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="32"/>
+      <c r="C68" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="D68" s="33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="32"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C70" s="39"/>
+      <c r="D70" s="34"/>
+    </row>
+    <row r="71" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="32"/>
+      <c r="C71" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="32"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C73" s="39"/>
+      <c r="D73" s="34"/>
+    </row>
+    <row r="74" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="32"/>
+      <c r="C74" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="32"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="34" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C76" s="39"/>
+      <c r="D76" s="34"/>
+    </row>
+    <row r="77" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="32"/>
+      <c r="C77" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="D77" s="33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="32"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="39"/>
+      <c r="D79" s="34"/>
+    </row>
+    <row r="80" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="32"/>
+      <c r="C80" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="32"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="34" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="39"/>
+      <c r="D82" s="34"/>
+    </row>
+    <row r="83" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="32"/>
+      <c r="C83" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="32"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="39"/>
+      <c r="D85" s="34"/>
+    </row>
+    <row r="86" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="32"/>
+      <c r="C86" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="D86" s="33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="32"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C88" s="39"/>
+      <c r="D88" s="34"/>
+    </row>
+    <row r="89" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="32"/>
+      <c r="C89" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="D89" s="33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="32"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" s="39"/>
+      <c r="D91" s="34"/>
+    </row>
+    <row r="92" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="32"/>
+      <c r="C92" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="D92" s="33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="32"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94" s="39"/>
+      <c r="D94" s="34"/>
+    </row>
+    <row r="95" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="32"/>
+      <c r="C95" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="D95" s="33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="32"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" s="39"/>
+      <c r="D97" s="34"/>
+    </row>
+    <row r="98" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="32"/>
+      <c r="C98" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="D98" s="33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="32"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="C100" s="39"/>
+      <c r="D100" s="34"/>
+    </row>
+    <row r="101" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="32"/>
+      <c r="C101" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="D101" s="33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="32"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C103" s="39"/>
+      <c r="D103" s="34"/>
+    </row>
+    <row r="104" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="32"/>
+      <c r="C104" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="D104" s="33" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="32"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="C106" s="39"/>
+      <c r="D106" s="34"/>
+    </row>
+    <row r="107" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="32"/>
+      <c r="C107" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="D107" s="33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="32"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C109" s="39"/>
+      <c r="D109" s="34"/>
+    </row>
+    <row r="110" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="32"/>
+      <c r="C110" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="D110" s="33" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B111" s="32"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="34" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C112" s="39"/>
+      <c r="D112" s="34"/>
+    </row>
+    <row r="113" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B113" s="32"/>
+      <c r="C113" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="D113" s="33" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B114" s="32"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="34" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C115" s="39"/>
+      <c r="D115" s="34"/>
+    </row>
+    <row r="116" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B116" s="32"/>
+      <c r="C116" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="D116" s="33" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="32"/>
+      <c r="C117" s="39"/>
+      <c r="D117" s="34" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B118" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C118" s="39"/>
+      <c r="D118" s="34"/>
+    </row>
+    <row r="119" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="32"/>
+      <c r="C119" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="32"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="34" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B121" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C121" s="39"/>
+      <c r="D121" s="34"/>
+    </row>
+    <row r="122" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B122" s="32"/>
+      <c r="C122" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="D122" s="33" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B123" s="32"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="34" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B124" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C124" s="39"/>
+      <c r="D124" s="34"/>
+    </row>
+    <row r="125" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B125" s="32"/>
+      <c r="C125" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="D125" s="33" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B126" s="32"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="34" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C127" s="39"/>
+      <c r="D127" s="34"/>
+    </row>
+    <row r="128" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="32"/>
+      <c r="C128" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="D128" s="33" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="32"/>
+      <c r="C129" s="39"/>
+      <c r="D129" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C130" s="39"/>
+      <c r="D130" s="34"/>
+    </row>
+    <row r="131" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="32"/>
+      <c r="C131" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="D131" s="33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="32"/>
+      <c r="C132" s="39"/>
+      <c r="D132" s="34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="C133" s="39"/>
+      <c r="D133" s="34"/>
+    </row>
+    <row r="134" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="32"/>
+      <c r="C134" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="D134" s="33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="32"/>
+      <c r="C135" s="39"/>
+      <c r="D135" s="34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C136" s="39"/>
+      <c r="D136" s="34"/>
+    </row>
+    <row r="137" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B137" s="32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B138" s="32"/>
+      <c r="C138" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="D138" s="33" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B139" s="32"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="34" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B140" s="32"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="34"/>
+    </row>
+    <row r="141" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C141" s="41"/>
+      <c r="D141" s="34"/>
+    </row>
+    <row r="142" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="143" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B143" s="32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B144" s="32"/>
+      <c r="C144" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="D144" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="32"/>
+      <c r="C145" s="39"/>
+      <c r="D145" s="34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B146" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C146" s="39"/>
+      <c r="D146" s="34"/>
+    </row>
+    <row r="147" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B147" s="32"/>
+      <c r="C147" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="D147" s="33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B148" s="32"/>
+      <c r="C148" s="39"/>
+      <c r="D148" s="34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B149" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C149" s="39"/>
+      <c r="D149" s="34"/>
+    </row>
+    <row r="150" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B150" s="32"/>
+      <c r="C150" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="D150" s="33" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B151" s="32"/>
+      <c r="C151" s="39"/>
+      <c r="D151" s="34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B152" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C152" s="39"/>
+      <c r="D152" s="34"/>
+    </row>
+    <row r="153" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B153" s="32"/>
+      <c r="C153" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="D153" s="33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B154" s="32"/>
+      <c r="C154" s="39"/>
+      <c r="D154" s="34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B155" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C155" s="39"/>
+      <c r="D155" s="34"/>
+    </row>
+    <row r="156" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B156" s="32"/>
+      <c r="C156" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="D156" s="33" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B157" s="32"/>
+      <c r="C157" s="39"/>
+      <c r="D157" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B158" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C158" s="39"/>
+      <c r="D158" s="34"/>
+    </row>
+    <row r="159" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B159" s="32"/>
+      <c r="C159" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="D159" s="33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B160" s="32"/>
+      <c r="C160" s="39"/>
+      <c r="D160" s="34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B161" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="C161" s="39"/>
+      <c r="D161" s="34"/>
+    </row>
+    <row r="162" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B162" s="32"/>
+      <c r="C162" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="D162" s="33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B163" s="32"/>
+      <c r="C163" s="39"/>
+      <c r="D163" s="34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C164" s="39"/>
+      <c r="D164" s="34"/>
+    </row>
+    <row r="165" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="166" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B166" s="32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B167" s="32"/>
+      <c r="C167" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="D167" s="33" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B168" s="32"/>
+      <c r="C168" s="41"/>
+      <c r="D168" s="33"/>
+    </row>
+    <row r="169" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="B124:B126"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="B112:B114"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0E314A-72F7-7B42-A198-EE4E0DF198E5}">
   <dimension ref="B1:AP192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H68" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="I78" sqref="I78"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="47" x14ac:dyDescent="0.2"/>
